--- a/trunk/Layout das Tabelas/Apuração Faltas.xlsx
+++ b/trunk/Layout das Tabelas/Apuração Faltas.xlsx
@@ -10,13 +10,14 @@
     <sheet name="V_FALTA" sheetId="1" r:id="rId1"/>
     <sheet name="COMPOSICA_TEMPOS" sheetId="2" r:id="rId2"/>
     <sheet name="V_SOLICITACAO_AULA" sheetId="3" r:id="rId3"/>
+    <sheet name="CONSOLIDACAO_HORISTA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="251">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -538,13 +539,244 @@
   </si>
   <si>
     <t>VARCHAR2(80)</t>
+  </si>
+  <si>
+    <t>DT_INICIO_ATUACAO</t>
+  </si>
+  <si>
+    <t>DT_FIM_ATUACAO</t>
+  </si>
+  <si>
+    <t>COD_CURSO</t>
+  </si>
+  <si>
+    <t>COD_CURSO_EXTENSAO</t>
+  </si>
+  <si>
+    <t>NUMBER(8)</t>
+  </si>
+  <si>
+    <t>NUMBER(12.2)</t>
+  </si>
+  <si>
+    <t>NUMBER(6.2)</t>
+  </si>
+  <si>
+    <t>IND_TIPO_CONTRATO</t>
+  </si>
+  <si>
+    <t>PERCENTUAL_APRIMORAMENTO</t>
+  </si>
+  <si>
+    <t>NUMBER(8.2)</t>
+  </si>
+  <si>
+    <t>COD_BANCO</t>
+  </si>
+  <si>
+    <t>COD_AGENCIA</t>
+  </si>
+  <si>
+    <t>COD_AGENCIA_DV</t>
+  </si>
+  <si>
+    <t>COD_CONTA_CORRENTE</t>
+  </si>
+  <si>
+    <t>COD_CONTA_CORRENTE_DV</t>
+  </si>
+  <si>
+    <t>COD_CATEGORIA_PROFESSOR</t>
+  </si>
+  <si>
+    <t>COD_TIPO_RUBRICA</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_ATUACAO</t>
+  </si>
+  <si>
+    <t>IND_PROPORCIONAL</t>
+  </si>
+  <si>
+    <t>COD_TIPO_ATUACAO</t>
+  </si>
+  <si>
+    <t>IND_CR_APOIO</t>
+  </si>
+  <si>
+    <t>IND_FIXO_VARIAVEL</t>
+  </si>
+  <si>
+    <t>IND_AUTORIZACAO</t>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
+  </si>
+  <si>
+    <t>NOM_PROCESSO</t>
+  </si>
+  <si>
+    <t>QTD_HORAS_TRABALHADAS</t>
+  </si>
+  <si>
+    <t>VALOR_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>QTDE_HORA_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>COD_VERBA_RH</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+  </si>
+  <si>
+    <t>COD_CENTRO_RESULTADO</t>
+  </si>
+  <si>
+    <t>IND_SITUACAO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>FLAG_RETROATIVO</t>
+  </si>
+  <si>
+    <t>IND_APTO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DT_ALOCACAO_DIA</t>
+  </si>
+  <si>
+    <t>IND_SUBSTITUICAO</t>
+  </si>
+  <si>
+    <t>IND_SITUACAO_GRUPO</t>
+  </si>
+  <si>
+    <t>IND_CURSO_EXTENSAO</t>
+  </si>
+  <si>
+    <t>DT_GERACAO</t>
+  </si>
+  <si>
+    <t>DT_GERACAO_DESCONTO</t>
+  </si>
+  <si>
+    <t>DT_GERACAO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DT_SOLICITACAO_DESCONTO</t>
+  </si>
+  <si>
+    <t>IND_PAGAMENTO_ALOCACAO</t>
+  </si>
+  <si>
+    <t>VAL_A_PAGAR</t>
+  </si>
+  <si>
+    <t>DT_INCLUSAO</t>
+  </si>
+  <si>
+    <t>DT_INICIO_ALOCACAO</t>
+  </si>
+  <si>
+    <t>DT_FIM_ALOCACAO</t>
+  </si>
+  <si>
+    <t>COD_SITUACAO_TURMA_EXTENSAO</t>
+  </si>
+  <si>
+    <t>DT_MES_ANO</t>
+  </si>
+  <si>
+    <t>QTD_VAGAS_PREENCHIDAS</t>
+  </si>
+  <si>
+    <t>QTD_VAGAS_OCUPADAS</t>
+  </si>
+  <si>
+    <t>DT_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_FALTA</t>
+  </si>
+  <si>
+    <t>IND_FALTA</t>
+  </si>
+  <si>
+    <t>CONTRATO_PROFESSOR</t>
+  </si>
+  <si>
+    <t>PK_TURMA</t>
+  </si>
+  <si>
+    <t>IND_ABONO</t>
+  </si>
+  <si>
+    <t>IND_TIPO_AULA</t>
+  </si>
+  <si>
+    <t>IND_REPOSICAO</t>
+  </si>
+  <si>
+    <t>V_OCORRENCIA</t>
+  </si>
+  <si>
+    <t>DIA_SEMANA</t>
+  </si>
+  <si>
+    <t>DT_INI</t>
+  </si>
+  <si>
+    <t>DT_FIM</t>
+  </si>
+  <si>
+    <t>HORA_INI</t>
+  </si>
+  <si>
+    <t>HORA_FIM</t>
+  </si>
+  <si>
+    <t>DT_SUBSTITUICAO_PROF</t>
+  </si>
+  <si>
+    <t>IND_ENSINO_DISTANCIA</t>
+  </si>
+  <si>
+    <t>IND_TELEPRESENCIAL</t>
+  </si>
+  <si>
+    <t>IND_MODALIDADE</t>
+  </si>
+  <si>
+    <t>COD_CAMPUS_PAI</t>
+  </si>
+  <si>
+    <t>COD_INSTITUICAO_PAI</t>
+  </si>
+  <si>
+    <t>IND_PAGAMENTO_RETROATIVIDADE</t>
+  </si>
+  <si>
+    <t>QTD_HORA_AD_NOT_DIA</t>
+  </si>
+  <si>
+    <t>QTD_HORA_DIA</t>
+  </si>
+  <si>
+    <t>TURNO_TEMPO</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>TIPO_INFO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +813,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -614,14 +868,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -633,10 +888,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -930,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.5703125" defaultRowHeight="15"/>
   <cols>
@@ -3074,4 +3361,1195 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E106"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/trunk/Layout das Tabelas/Apuração Faltas.xlsx
+++ b/trunk/Layout das Tabelas/Apuração Faltas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="18960" windowHeight="8520"/>
@@ -10,7 +10,7 @@
     <sheet name="V_FALTA" sheetId="1" r:id="rId1"/>
     <sheet name="COMPOSICA_TEMPOS" sheetId="2" r:id="rId2"/>
     <sheet name="V_SOLICITACAO_AULA" sheetId="3" r:id="rId3"/>
-    <sheet name="CONSOLIDACAO_HORISTA" sheetId="4" r:id="rId4"/>
+    <sheet name="REMUNERACAO_DOCENTE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -775,8 +775,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,12 +921,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1005,6 +1010,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1039,6 +1045,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1214,12 +1221,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="51.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
@@ -1228,7 +1235,7 @@
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1265,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1271,7 +1278,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1291,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1297,7 +1304,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,7 +1317,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1330,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1336,7 +1343,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,7 +1356,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1362,7 +1369,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1375,7 +1382,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1388,7 +1395,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1401,7 +1408,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1414,7 +1421,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1427,7 +1434,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1440,7 +1447,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1453,7 +1460,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1466,7 +1473,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1479,7 +1486,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1492,7 +1499,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1505,7 +1512,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1518,7 +1525,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1531,7 +1538,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1544,7 +1551,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1557,7 +1564,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
@@ -1570,7 +1577,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -1583,7 +1590,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1596,7 +1603,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1609,7 +1616,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1622,7 +1629,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -1635,7 +1642,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -1648,7 +1655,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -1661,7 +1668,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -1674,7 +1681,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -1687,7 +1694,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -1700,7 +1707,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -1713,7 +1720,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -1726,7 +1733,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -1739,7 +1746,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -1752,7 +1759,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -1765,7 +1772,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -1778,7 +1785,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -1791,7 +1798,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
@@ -1804,7 +1811,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -1817,7 +1824,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
@@ -1830,7 +1837,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -1843,7 +1850,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -1856,7 +1863,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -1869,7 +1876,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -1882,7 +1889,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -1895,7 +1902,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
@@ -1908,7 +1915,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -1921,7 +1928,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -1934,7 +1941,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
@@ -1947,7 +1954,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -1960,7 +1967,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>81</v>
       </c>
@@ -1973,7 +1980,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -1986,7 +1993,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>83</v>
       </c>
@@ -1999,7 +2006,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -2012,7 +2019,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>85</v>
       </c>
@@ -2025,7 +2032,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>86</v>
       </c>
@@ -2038,7 +2045,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
@@ -2051,7 +2058,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>88</v>
       </c>
@@ -2064,7 +2071,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
@@ -2077,7 +2084,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -2090,7 +2097,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>91</v>
       </c>
@@ -2103,7 +2110,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>92</v>
       </c>
@@ -2116,7 +2123,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>93</v>
       </c>
@@ -2129,7 +2136,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>94</v>
       </c>
@@ -2142,7 +2149,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
@@ -2155,7 +2162,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>98</v>
       </c>
@@ -2168,7 +2175,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>99</v>
       </c>
@@ -2181,7 +2188,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>100</v>
       </c>
@@ -2194,7 +2201,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>101</v>
       </c>
@@ -2207,7 +2214,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>103</v>
       </c>
@@ -2220,7 +2227,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>104</v>
       </c>
@@ -2233,7 +2240,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>105</v>
       </c>
@@ -2246,7 +2253,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>106</v>
       </c>
@@ -2259,7 +2266,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
@@ -2272,7 +2279,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>108</v>
       </c>
@@ -2285,7 +2292,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>109</v>
       </c>
@@ -2298,7 +2305,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>110</v>
       </c>
@@ -2311,7 +2318,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>111</v>
       </c>
@@ -2324,7 +2331,7 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>112</v>
       </c>
@@ -2337,7 +2344,7 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>113</v>
       </c>
@@ -2350,7 +2357,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>114</v>
       </c>
@@ -2363,7 +2370,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>115</v>
       </c>
@@ -2376,7 +2383,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>116</v>
       </c>
@@ -2389,7 +2396,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>117</v>
       </c>
@@ -2402,7 +2409,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>118</v>
       </c>
@@ -2415,7 +2422,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>119</v>
       </c>
@@ -2428,7 +2435,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>120</v>
       </c>
@@ -2448,12 +2455,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="52.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -2461,7 +2468,7 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -2491,7 +2498,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -2506,7 +2513,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -2521,7 +2528,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
@@ -2536,7 +2543,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -2551,7 +2558,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -2581,7 +2588,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2596,7 +2603,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
@@ -2609,7 +2616,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>137</v>
       </c>
@@ -2622,7 +2629,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
@@ -2635,7 +2642,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -2650,7 +2657,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
@@ -2665,7 +2672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -2680,7 +2687,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
@@ -2704,12 +2711,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="37.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
@@ -2717,7 +2724,7 @@
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
@@ -2747,7 +2754,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
@@ -2760,7 +2767,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>151</v>
       </c>
@@ -2773,7 +2780,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
@@ -2786,7 +2793,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>124</v>
       </c>
@@ -2799,7 +2806,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2812,7 +2819,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -2825,7 +2832,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
@@ -2838,7 +2845,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
@@ -2851,7 +2858,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -2864,7 +2871,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>157</v>
       </c>
@@ -2877,7 +2884,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>159</v>
       </c>
@@ -2890,7 +2897,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
@@ -2903,7 +2910,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
@@ -2916,7 +2923,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -2929,7 +2936,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>161</v>
       </c>
@@ -2942,7 +2949,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
@@ -2955,7 +2962,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -2968,7 +2975,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>164</v>
       </c>
@@ -2981,7 +2988,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>166</v>
       </c>
@@ -2994,7 +3001,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>167</v>
       </c>
@@ -3007,7 +3014,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -3020,7 +3027,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>169</v>
       </c>
@@ -3033,7 +3040,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>170</v>
       </c>
@@ -3046,7 +3053,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3059,7 +3066,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -3072,7 +3079,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -3085,7 +3092,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -3098,7 +3105,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -3111,7 +3118,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -3124,7 +3131,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -3137,7 +3144,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -3150,7 +3157,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -3163,7 +3170,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>171</v>
       </c>
@@ -3176,7 +3183,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -3189,7 +3196,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -3202,7 +3209,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
@@ -3215,7 +3222,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
@@ -3228,7 +3235,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -3241,7 +3248,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
@@ -3254,7 +3261,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -3267,7 +3274,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -3280,7 +3287,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -3293,7 +3300,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
@@ -3306,7 +3313,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>101</v>
       </c>
@@ -3319,7 +3326,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>103</v>
       </c>
@@ -3332,7 +3339,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>104</v>
       </c>
@@ -3345,7 +3352,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>105</v>
       </c>
@@ -3364,12 +3371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -3377,7 +3386,7 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3394,7 +3403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
@@ -3405,7 +3414,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>152</v>
       </c>
@@ -3416,7 +3425,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>128</v>
       </c>
@@ -3427,7 +3436,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>174</v>
       </c>
@@ -3438,7 +3447,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>175</v>
       </c>
@@ -3449,7 +3458,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
@@ -3460,7 +3469,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>126</v>
       </c>
@@ -3471,7 +3480,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>176</v>
       </c>
@@ -3482,7 +3491,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>177</v>
       </c>
@@ -3493,7 +3502,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>161</v>
       </c>
@@ -3504,7 +3513,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>163</v>
       </c>
@@ -3515,7 +3524,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>94</v>
       </c>
@@ -3526,7 +3535,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>150</v>
       </c>
@@ -3537,7 +3546,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>172</v>
       </c>
@@ -3548,7 +3557,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>181</v>
       </c>
@@ -3559,7 +3568,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>182</v>
       </c>
@@ -3570,7 +3579,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>184</v>
       </c>
@@ -3581,7 +3590,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>185</v>
       </c>
@@ -3592,7 +3601,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>186</v>
       </c>
@@ -3603,7 +3612,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>187</v>
       </c>
@@ -3614,7 +3623,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>188</v>
       </c>
@@ -3625,7 +3634,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>189</v>
       </c>
@@ -3636,7 +3645,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>171</v>
       </c>
@@ -3647,7 +3656,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>190</v>
       </c>
@@ -3658,7 +3667,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>191</v>
       </c>
@@ -3669,7 +3678,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>192</v>
       </c>
@@ -3680,7 +3689,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>193</v>
       </c>
@@ -3691,7 +3700,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>101</v>
       </c>
@@ -3702,7 +3711,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>194</v>
       </c>
@@ -3713,7 +3722,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>195</v>
       </c>
@@ -3724,7 +3733,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>104</v>
       </c>
@@ -3735,7 +3744,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>196</v>
       </c>
@@ -3746,7 +3755,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>198</v>
       </c>
@@ -3757,7 +3766,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>199</v>
       </c>
@@ -3768,7 +3777,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>200</v>
       </c>
@@ -3779,7 +3788,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>201</v>
       </c>
@@ -3790,7 +3799,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>202</v>
       </c>
@@ -3801,7 +3810,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>204</v>
       </c>
@@ -3812,7 +3821,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>205</v>
       </c>
@@ -3823,7 +3832,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>206</v>
       </c>
@@ -3834,7 +3843,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>207</v>
       </c>
@@ -3845,7 +3854,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>208</v>
       </c>
@@ -3856,7 +3865,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>209</v>
       </c>
@@ -3867,7 +3876,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>74</v>
       </c>
@@ -3878,7 +3887,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>210</v>
       </c>
@@ -3889,7 +3898,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>211</v>
       </c>
@@ -3900,7 +3909,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>212</v>
       </c>
@@ -3911,7 +3920,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>213</v>
       </c>
@@ -3922,7 +3931,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>214</v>
       </c>
@@ -3933,7 +3942,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>103</v>
       </c>
@@ -3944,7 +3953,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>157</v>
       </c>
@@ -3955,7 +3964,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>64</v>
       </c>
@@ -3966,7 +3975,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>156</v>
       </c>
@@ -3977,7 +3986,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>215</v>
       </c>
@@ -3988,7 +3997,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>149</v>
       </c>
@@ -3999,7 +4008,7 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>216</v>
       </c>
@@ -4010,7 +4019,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>77</v>
       </c>
@@ -4021,7 +4030,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>217</v>
       </c>
@@ -4032,7 +4041,7 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>218</v>
       </c>
@@ -4043,7 +4052,7 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>219</v>
       </c>
@@ -4054,7 +4063,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>220</v>
       </c>
@@ -4065,7 +4074,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>221</v>
       </c>
@@ -4076,7 +4085,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>222</v>
       </c>
@@ -4087,7 +4096,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>223</v>
       </c>
@@ -4098,7 +4107,7 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>224</v>
       </c>
@@ -4109,7 +4118,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>225</v>
       </c>
@@ -4120,7 +4129,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>100</v>
       </c>
@@ -4131,7 +4140,7 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>57</v>
       </c>
@@ -4142,7 +4151,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>226</v>
       </c>
@@ -4153,7 +4162,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>227</v>
       </c>
@@ -4164,7 +4173,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>85</v>
       </c>
@@ -4175,7 +4184,7 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>86</v>
       </c>
@@ -4186,7 +4195,7 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>87</v>
       </c>
@@ -4197,7 +4206,7 @@
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>228</v>
       </c>
@@ -4208,7 +4217,7 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>229</v>
       </c>
@@ -4219,7 +4228,7 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>230</v>
       </c>
@@ -4230,7 +4239,7 @@
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>88</v>
       </c>
@@ -4241,7 +4250,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>231</v>
       </c>
@@ -4252,7 +4261,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>232</v>
       </c>
@@ -4263,7 +4272,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>105</v>
       </c>
@@ -4274,7 +4283,7 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>233</v>
       </c>
@@ -4285,7 +4294,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>234</v>
       </c>
@@ -4296,7 +4305,7 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>235</v>
       </c>
@@ -4307,7 +4316,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>236</v>
       </c>
@@ -4318,7 +4327,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>237</v>
       </c>
@@ -4329,7 +4338,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>238</v>
       </c>
@@ -4340,7 +4349,7 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>239</v>
       </c>
@@ -4351,7 +4360,7 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>240</v>
       </c>
@@ -4362,7 +4371,7 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>71</v>
       </c>
@@ -4373,7 +4382,7 @@
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>72</v>
       </c>
@@ -4384,7 +4393,7 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>73</v>
       </c>
@@ -4395,7 +4404,7 @@
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>146</v>
       </c>
@@ -4406,7 +4415,7 @@
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>241</v>
       </c>
@@ -4417,7 +4426,7 @@
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>68</v>
       </c>
@@ -4428,7 +4437,7 @@
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>242</v>
       </c>
@@ -4439,7 +4448,7 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>140</v>
       </c>
@@ -4450,7 +4459,7 @@
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>142</v>
       </c>
@@ -4461,7 +4470,7 @@
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>243</v>
       </c>
@@ -4472,7 +4481,7 @@
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>244</v>
       </c>
@@ -4483,7 +4492,7 @@
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>245</v>
       </c>
@@ -4494,7 +4503,7 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>246</v>
       </c>
@@ -4505,7 +4514,7 @@
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>247</v>
       </c>
@@ -4516,7 +4525,7 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>248</v>
       </c>
@@ -4527,7 +4536,7 @@
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>249</v>
       </c>
@@ -4538,7 +4547,7 @@
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>250</v>
       </c>
